--- a/lab1.02/lab2.xlsx
+++ b/lab1.02/lab2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\only_labs_java\physics\lab1.02\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B6C6F94-4A5F-40B5-9AE7-858914A2339B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C09BD2-E84C-4C16-878A-38A032432653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{5DFFE7F6-1A25-4B7C-B47D-4812CB48AFD4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <r>
       <t>N</t>
@@ -249,13 +249,16 @@
   <si>
     <t>a=A+B*sin(a)</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -472,25 +475,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -511,15 +496,33 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1107,10 +1110,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Лист1!$Z$3:$Z$16</c:f>
+              <c:f>Лист1!$Z$3:$Z$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1149,60 +1152,54 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>5.9999999999999991E-2</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.4999999999999988E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$AA$3:$AA$16</c:f>
+              <c:f>Лист1!$AA$3:$AA$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>-0.05</c:v>
+                  <c:v>6.3E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.3500000000000005E-2</c:v>
+                  <c:v>0.10170000000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.2999999999999993E-2</c:v>
+                  <c:v>0.14040000000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.9499999999999997E-2</c:v>
+                  <c:v>0.17909999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>9.5999999999999988E-2</c:v>
+                  <c:v>0.21780000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13250000000000001</c:v>
+                  <c:v>0.25650000000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.16899999999999998</c:v>
+                  <c:v>0.29520000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.20550000000000002</c:v>
+                  <c:v>0.33390000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.24199999999999999</c:v>
+                  <c:v>0.37260000000000004</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.27849999999999997</c:v>
+                  <c:v>0.4113</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.31499999999999995</c:v>
+                  <c:v>0.44999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.35149999999999998</c:v>
+                  <c:v>0.48869999999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.38799999999999996</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.42449999999999993</c:v>
+                  <c:v>0.52739999999999987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1266,16 +1263,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.8282051282051279</c:v>
+                  <c:v>5.6231578947368419</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.9397435897435908</c:v>
+                  <c:v>7.6326315789473682</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11.151282051282051</c:v>
+                  <c:v>9.2421052631578942</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>13.212820512820514</c:v>
+                  <c:v>11.25157894736842</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1287,16 +1284,16 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.7549423666056904E-2</c:v>
+                  <c:v>0.10468780993101624</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.0075681736275167E-2</c:v>
+                  <c:v>0.19020542185560407</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.16541353383458643</c:v>
+                  <c:v>0.2857142857142857</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.30259017187121767</c:v>
+                  <c:v>0.38328088437020907</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.51069777443285669</c:v>
@@ -3078,10 +3075,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C876B68B-4201-47E9-88F2-C73B1698665B}">
-  <dimension ref="A1:AA26"/>
+  <dimension ref="A1:AA30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V41" sqref="V41"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="X34" sqref="X34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3110,38 +3107,38 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="12" t="s">
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="13"/>
+      <c r="O1" s="21"/>
     </row>
     <row r="2" spans="1:27" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
-      <c r="B2" s="7">
+      <c r="B2" s="22">
         <v>203</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="22">
         <v>203</v>
       </c>
       <c r="D2" s="6">
         <v>1</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="11">
         <v>1.2</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="11">
         <v>4.3</v>
       </c>
-      <c r="I2" s="9"/>
+      <c r="I2" s="24"/>
       <c r="J2" s="6" t="s">
         <v>8</v>
       </c>
@@ -3157,7 +3154,7 @@
       <c r="N2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="19" t="s">
         <v>31</v>
       </c>
       <c r="W2" t="s">
@@ -3175,18 +3172,18 @@
     </row>
     <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
       <c r="D3" s="6">
         <v>2</v>
       </c>
-      <c r="E3" s="17">
+      <c r="E3" s="11">
         <v>1.3</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="11">
         <v>4.5</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="7">
         <v>1</v>
       </c>
       <c r="J3" s="6">
@@ -3222,26 +3219,26 @@
         <v>0</v>
       </c>
       <c r="AA3">
-        <f>-0.05+7.3*Z3</f>
-        <v>-0.05</v>
+        <f>0.063+7.74*Z3</f>
+        <v>6.3E-2</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
       <c r="D4" s="6">
         <v>3</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="11">
         <v>1.4</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="11">
         <v>4.5</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="7">
         <v>2</v>
       </c>
       <c r="J4" s="6">
@@ -3278,24 +3275,24 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="AA4">
-        <f t="shared" ref="AA4:AA16" si="2">-0.05+7.3*Z4</f>
-        <v>-1.3500000000000005E-2</v>
+        <f t="shared" ref="AA4:AA15" si="2">0.063+7.74*Z4</f>
+        <v>0.10170000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
       <c r="D5" s="6">
         <v>4</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="11">
         <v>1.4</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="11">
         <v>4.5</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="7">
         <v>3</v>
       </c>
       <c r="J5" s="6">
@@ -3334,23 +3331,23 @@
       </c>
       <c r="AA5">
         <f t="shared" si="2"/>
-        <v>2.2999999999999993E-2</v>
+        <v>0.14040000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="6">
         <v>5</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="11">
         <v>1.3</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="11">
         <v>4.5</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="7">
         <v>4</v>
       </c>
       <c r="J6" s="6">
@@ -3384,32 +3381,32 @@
         <v>0.16200000000000001</v>
       </c>
       <c r="Z6">
-        <f t="shared" ref="Z6:Z25" si="4">Z5+0.005</f>
+        <f t="shared" ref="Z6:Z15" si="4">Z5+0.005</f>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="AA6">
         <f t="shared" si="2"/>
-        <v>5.9499999999999997E-2</v>
+        <v>0.17909999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
-      <c r="B7" s="7">
+      <c r="B7" s="22">
         <v>227</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="22">
         <v>205</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="11">
         <v>3.3</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="7">
         <v>5</v>
       </c>
       <c r="J7" s="6">
@@ -3448,20 +3445,20 @@
       </c>
       <c r="AA7">
         <f t="shared" si="2"/>
-        <v>9.5999999999999988E-2</v>
+        <v>0.21780000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="6">
         <v>2</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="11">
         <v>1</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="11">
         <v>3.3</v>
       </c>
       <c r="W8">
@@ -3478,22 +3475,22 @@
       </c>
       <c r="AA8">
         <f t="shared" si="2"/>
-        <v>0.13250000000000001</v>
+        <v>0.25650000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>2</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="6">
         <v>3</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="11">
         <v>3.4</v>
       </c>
       <c r="W9">
@@ -3510,20 +3507,20 @@
       </c>
       <c r="AA9">
         <f t="shared" si="2"/>
-        <v>0.16899999999999998</v>
+        <v>0.29520000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="6">
         <v>4</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="11">
         <v>3.3</v>
       </c>
       <c r="W10">
@@ -3540,35 +3537,35 @@
       </c>
       <c r="AA10">
         <f t="shared" si="2"/>
-        <v>0.20550000000000002</v>
+        <v>0.33390000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="6">
         <v>5</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="11">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="11">
         <v>3.4</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="14" t="s">
+      <c r="L11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="M11" s="14" t="s">
+      <c r="M11" s="8" t="s">
         <v>13</v>
       </c>
       <c r="P11" t="s">
@@ -3580,7 +3577,7 @@
       <c r="R11" t="s">
         <v>16</v>
       </c>
-      <c r="S11" s="19" t="s">
+      <c r="S11" s="13" t="s">
         <v>17</v>
       </c>
       <c r="T11" t="s">
@@ -3603,68 +3600,68 @@
       </c>
       <c r="AA11">
         <f t="shared" si="2"/>
-        <v>0.24199999999999999</v>
+        <v>0.37260000000000004</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
-      <c r="B12" s="7">
+      <c r="B12" s="22">
         <v>236</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="22">
         <v>205</v>
       </c>
       <c r="D12" s="6">
         <v>1</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="11">
         <v>0.8</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="11">
         <v>2.7</v>
       </c>
-      <c r="I12" s="15">
+      <c r="I12" s="9">
         <v>1</v>
       </c>
-      <c r="J12" s="16">
-        <f>((203-203)-(203-203))/(1000-220)</f>
+      <c r="J12" s="10">
+        <f>((203-203)-(203-203))/(1100-150)</f>
         <v>0</v>
       </c>
-      <c r="K12" s="18">
+      <c r="K12" s="12">
         <f>AVERAGE(E2:E6)</f>
         <v>1.3199999999999998</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="12">
         <f>AVERAGE(F2:F6)</f>
         <v>4.46</v>
       </c>
-      <c r="M12" s="16"/>
-      <c r="O12" s="15">
+      <c r="M12" s="10"/>
+      <c r="O12" s="9">
         <v>1</v>
       </c>
-      <c r="P12" s="18">
+      <c r="P12" s="12">
         <f>(((E2-K12)^2+(E3-K12)^2+(E4-K12)^2+(E5-K12)^2+(E6-K12)^2)/(4*5))^0.5</f>
         <v>3.7416573867739396E-2</v>
       </c>
-      <c r="Q12" s="18">
+      <c r="Q12" s="12">
         <f>(((F2-L12)^2+(F3-L12)^2+(F4-L12)^2+(F5-L12)^2+(F6-L12)^2)/(4*5))^0.5</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="R12" s="20">
+      <c r="R12" s="14">
         <f>((P12*2.78)^2+(0.1*2/3)^2)^0.5</f>
         <v>0.123548389080734</v>
       </c>
-      <c r="S12" s="20">
+      <c r="S12" s="14">
         <f>((Q12*2.78)^2+(0.1*2/3)^2)^0.5</f>
         <v>0.12965293843351358</v>
       </c>
-      <c r="T12" s="22">
-        <f>(2*(K3-J3))/(L12^2-K12^2)</f>
-        <v>2.7549423666056904E-2</v>
-      </c>
-      <c r="U12" s="21">
-        <f>T12*((2*0.005^2)/(K3-J3)^2 + 4*((K12*R12)^2+(L12*S12)^2)/(L12^2-K12^2)^2)^0.5</f>
-        <v>1.983457705957193E-3</v>
+      <c r="T12" s="16">
+        <f>(2*(1.1-0.15))/(L12^2-K12^2)</f>
+        <v>0.10468780993101624</v>
+      </c>
+      <c r="U12" s="15">
+        <f>T12*((2*0.005^2)/(1.1-0.15)^2 + 4*((K12*R12)^2+(L12*S12)^2)/(L12^2-K12^2)^2)^0.5</f>
+        <v>6.9748129095208184E-3</v>
       </c>
       <c r="W12">
         <f t="shared" si="3"/>
@@ -3680,64 +3677,64 @@
       </c>
       <c r="AA12">
         <f t="shared" si="2"/>
-        <v>0.27849999999999997</v>
+        <v>0.4113</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="6">
         <v>2</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="11">
         <v>0.8</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="11">
         <v>2.7</v>
       </c>
-      <c r="I13" s="15">
+      <c r="I13" s="9">
         <v>2</v>
       </c>
-      <c r="J13" s="20">
-        <f>-((203-227)-(203-205))/(1000-220)</f>
-        <v>2.8205128205128206E-2</v>
-      </c>
-      <c r="K13" s="18">
+      <c r="J13" s="14">
+        <f>-((203-227)-(203-205))/(1100-150)</f>
+        <v>2.3157894736842106E-2</v>
+      </c>
+      <c r="K13" s="12">
         <f>AVERAGE(E7:E11)</f>
         <v>1.08</v>
       </c>
-      <c r="L13" s="18">
+      <c r="L13" s="12">
         <f>AVERAGE(F7:F11)</f>
         <v>3.34</v>
       </c>
-      <c r="M13" s="16"/>
-      <c r="O13" s="15">
+      <c r="M13" s="10"/>
+      <c r="O13" s="9">
         <v>2</v>
       </c>
-      <c r="P13" s="16">
+      <c r="P13" s="10">
         <f>(((E7-K13)^2+(E8-K13)^2+(E9-K13)^2+(E10-K13)^2+(E11-K13)^2)/(4*5))^0.5</f>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="Q13" s="20">
+      <c r="Q13" s="14">
         <f>(((F7-L13)^2+(F8-L13)^2+(F9-L13)^2+(F10-L13)^2+(F11-L13)^2)/(4*5))^0.5</f>
         <v>2.4494897427831803E-2</v>
       </c>
-      <c r="R13" s="20">
+      <c r="R13" s="14">
         <f t="shared" ref="R13:R16" si="5">((P13*2.78)^2+(0.1*2/3)^2)^0.5</f>
         <v>8.6809011308990561E-2</v>
       </c>
-      <c r="S13" s="20">
+      <c r="S13" s="14">
         <f t="shared" ref="S13:S15" si="6">((Q13*2.78)^2+(0.1*2/3)^2)^0.5</f>
         <v>9.5296822845488682E-2</v>
       </c>
-      <c r="T13" s="22">
-        <f t="shared" ref="T13:T16" si="7">(2*(K4-J4))/(L13^2-K13^2)</f>
-        <v>7.0075681736275167E-2</v>
-      </c>
-      <c r="U13" s="21">
-        <f>T13*((2*0.005^2)/(K4-J4)^2 + 4*((K13*R13)^2+(L13*S13)^2)/(L13^2-K13^2)^2)^0.5</f>
-        <v>4.8659264050048062E-3</v>
+      <c r="T13" s="16">
+        <f t="shared" ref="T13:T16" si="7">(2*(1.1-0.15))/(L13^2-K13^2)</f>
+        <v>0.19020542185560407</v>
+      </c>
+      <c r="U13" s="15">
+        <f t="shared" ref="U13:U16" si="8">T13*((2*0.005^2)/(1.1-0.15)^2 + 4*((K13*R13)^2+(L13*S13)^2)/(L13^2-K13^2)^2)^0.5</f>
+        <v>1.271519541973618E-2</v>
       </c>
       <c r="W13">
         <f t="shared" si="3"/>
@@ -3753,66 +3750,66 @@
       </c>
       <c r="AA13">
         <f t="shared" si="2"/>
-        <v>0.31499999999999995</v>
+        <v>0.44999999999999996</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>3</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="6">
         <v>3</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="11">
         <v>0.8</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="11">
         <v>2.7</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="9">
         <v>3</v>
       </c>
-      <c r="J14" s="20">
-        <f>-((203-236)-(203-205))/(1000-220)</f>
-        <v>3.9743589743589741E-2</v>
-      </c>
-      <c r="K14" s="18">
+      <c r="J14" s="14">
+        <f>-((203-236)-(203-205))/(1100-150)</f>
+        <v>3.2631578947368421E-2</v>
+      </c>
+      <c r="K14" s="12">
         <f>AVERAGE(E12:E16)</f>
         <v>0.8</v>
       </c>
-      <c r="L14" s="18">
+      <c r="L14" s="12">
         <f>AVERAGE(F12:F16)</f>
         <v>2.7</v>
       </c>
-      <c r="M14" s="16"/>
-      <c r="O14" s="15">
+      <c r="M14" s="10"/>
+      <c r="O14" s="9">
         <v>3</v>
       </c>
-      <c r="P14" s="16">
+      <c r="P14" s="10">
         <f>(((E12-K14)^2+(E13-K14)^2+(E14-K14)^2+(E15-K14)^2+(E16-K14)^2)/(4*5))^0.5</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="20">
+      <c r="Q14" s="14">
         <f>(((F12-L14)^2+(F13-L14)^2+(F14-L14)^2+(F15-L14)^2+(F16-L14)^2)/(4*5))^0.5</f>
         <v>0</v>
       </c>
-      <c r="R14" s="20">
+      <c r="R14" s="14">
         <f>((P14*2.78)^2+(0.1*2/3)^2)^0.5</f>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="S14" s="20">
+      <c r="S14" s="14">
         <f t="shared" si="6"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="T14" s="22">
-        <f t="shared" si="7"/>
-        <v>0.16541353383458643</v>
-      </c>
-      <c r="U14" s="21">
-        <f t="shared" ref="U13:U16" si="8">T14*((2*0.005^2)/(K5-J5)^2 + 4*((K14*R14)^2+(L14*S14)^2)/(L14^2-K14^2)^2)^0.5</f>
-        <v>9.5785847659612001E-3</v>
+      <c r="T14" s="16">
+        <f>(2*(1.1-0.15))/(L14^2-K14^2)</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="U14" s="15">
+        <f t="shared" si="8"/>
+        <v>1.6271475820629395E-2</v>
       </c>
       <c r="W14">
         <f t="shared" si="3"/>
@@ -3828,64 +3825,64 @@
       </c>
       <c r="AA14">
         <f t="shared" si="2"/>
-        <v>0.35149999999999998</v>
+        <v>0.48869999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="6">
         <v>4</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="11">
         <v>0.8</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="11">
         <v>2.7</v>
       </c>
-      <c r="I15" s="15">
+      <c r="I15" s="9">
         <v>4</v>
       </c>
-      <c r="J15" s="20">
-        <f>-((203-246)-(203-206))/(1000-220)</f>
-        <v>5.128205128205128E-2</v>
-      </c>
-      <c r="K15" s="18">
+      <c r="J15" s="14">
+        <f>-((203-246)-(203-206))/(1100-150)</f>
+        <v>4.2105263157894736E-2</v>
+      </c>
+      <c r="K15" s="12">
         <f>AVERAGE(E17:E21)</f>
         <v>0.72</v>
       </c>
-      <c r="L15" s="18">
+      <c r="L15" s="12">
         <f>AVERAGE(F17:F21)</f>
         <v>2.34</v>
       </c>
-      <c r="M15" s="16"/>
-      <c r="O15" s="15">
+      <c r="M15" s="10"/>
+      <c r="O15" s="9">
         <v>4</v>
       </c>
-      <c r="P15" s="16">
+      <c r="P15" s="10">
         <f>(((E17-K15)^2+(E18-K15)^2+(E19-K15)^2+(E20-K15)^2+(E21-K15)^2)/(4*5))^0.5</f>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="Q15" s="20">
+      <c r="Q15" s="14">
         <f>(((F17-L15)^2+(F18-L15)^2+(F19-L15)^2+(F20-L15)^2+(F21-L15)^2)/(4*5))^0.5</f>
         <v>4.0000000000000036E-2</v>
       </c>
-      <c r="R15" s="20">
+      <c r="R15" s="14">
         <f t="shared" si="5"/>
         <v>8.6809011308990561E-2</v>
       </c>
-      <c r="S15" s="20">
+      <c r="S15" s="14">
         <f t="shared" si="6"/>
         <v>0.12965293843351358</v>
       </c>
-      <c r="T15" s="22">
-        <f>(2*(K6-J6))/(L15^2-K15^2)</f>
-        <v>0.30259017187121767</v>
-      </c>
-      <c r="U15" s="21">
+      <c r="T15" s="16">
+        <f t="shared" si="7"/>
+        <v>0.38328088437020907</v>
+      </c>
+      <c r="U15" s="15">
         <f t="shared" si="8"/>
-        <v>3.7923196795145817E-2</v>
+        <v>4.7984816498080861E-2</v>
       </c>
       <c r="W15">
         <f t="shared" si="3"/>
@@ -3901,62 +3898,62 @@
       </c>
       <c r="AA15">
         <f t="shared" si="2"/>
-        <v>0.38799999999999996</v>
+        <v>0.52739999999999987</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="6">
         <v>5</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="11">
         <v>0.8</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="11">
         <v>2.7</v>
       </c>
-      <c r="I16" s="15">
+      <c r="I16" s="9">
         <v>5</v>
       </c>
-      <c r="J16" s="20">
-        <f>-((203-255)-(203-206))/(1000-220)</f>
-        <v>6.2820512820512819E-2</v>
-      </c>
-      <c r="K16" s="18">
+      <c r="J16" s="14">
+        <f>-((203-255)-(203-206))/(1100-150)</f>
+        <v>5.1578947368421051E-2</v>
+      </c>
+      <c r="K16" s="12">
         <f>AVERAGE(E22:E26)</f>
         <v>0.6</v>
       </c>
-      <c r="L16" s="18">
+      <c r="L16" s="12">
         <f>AVERAGE(F22:F26)</f>
         <v>2.02</v>
       </c>
-      <c r="M16" s="16"/>
-      <c r="O16" s="15">
+      <c r="M16" s="10"/>
+      <c r="O16" s="9">
         <v>5</v>
       </c>
-      <c r="P16" s="16">
+      <c r="P16" s="10">
         <f>(((E22-K16)^2+(E23-K16)^2+(E24-K16)^2+(E25-K16)^2+(E26-K16)^2)/(4*5))^0.5</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="20">
+      <c r="Q16" s="14">
         <f>(((F22-L16)^2+(F23-L16)^2+(F24-L16)^2+(F25-L16)^2+(F26-L16)^2)/(4*5))^0.5</f>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="R16" s="20">
+      <c r="R16" s="14">
         <f t="shared" si="5"/>
         <v>6.6666666666666666E-2</v>
       </c>
-      <c r="S16" s="20">
+      <c r="S16" s="14">
         <f>((Q16*2.78)^2+(0.1*2/3)^2)^0.5</f>
         <v>8.6809011308990561E-2</v>
       </c>
-      <c r="T16" s="22">
-        <f>(2*(K7-J7))/(L16^2-K16^2)</f>
+      <c r="T16" s="16">
+        <f t="shared" si="7"/>
         <v>0.51069777443285669</v>
       </c>
-      <c r="U16" s="21">
+      <c r="U16" s="15">
         <f t="shared" si="8"/>
         <v>4.9524314533702096E-2</v>
       </c>
@@ -3968,30 +3965,22 @@
         <f t="shared" si="1"/>
         <v>0.70199999999999996</v>
       </c>
-      <c r="Z16">
-        <f t="shared" si="4"/>
-        <v>6.4999999999999988E-2</v>
-      </c>
-      <c r="AA16">
-        <f t="shared" si="2"/>
-        <v>0.42449999999999993</v>
-      </c>
     </row>
-    <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
-      <c r="B17" s="7">
+      <c r="B17" s="22">
         <v>246</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="22">
         <v>206</v>
       </c>
       <c r="D17" s="6">
         <v>1</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="11">
         <v>0.7</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F17" s="11">
         <v>2.2999999999999998</v>
       </c>
       <c r="W17">
@@ -4003,17 +3992,17 @@
         <v>0.75600000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="6">
         <v>2</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="11">
         <v>0.7</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="11">
         <v>2.2999999999999998</v>
       </c>
       <c r="L18" t="s">
@@ -4046,45 +4035,46 @@
         <v>0.80999999999999994</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>4</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="6">
         <v>3</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="11">
         <v>0.7</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F19" s="11">
         <v>2.2999999999999998</v>
       </c>
       <c r="L19">
-        <v>-0.05</v>
+        <f>(SUM(T12:T16)-M19*(SUM(J12:J16)))/5</f>
+        <v>6.3431892843706844E-2</v>
       </c>
       <c r="M19">
         <f>P19/O19</f>
-        <v>7.3019344218910893</v>
-      </c>
-      <c r="O19" s="23">
+        <v>7.74334772169835</v>
+      </c>
+      <c r="O19" s="17">
         <f>(J12^2)+(J13^2)+(J14^2)+(J15^2)+(J16^2)-(1/5)*(J12+J13+J14+J15+J16)^2</f>
-        <v>2.3228139381985527E-3</v>
-      </c>
-      <c r="P19" s="23">
+        <v>1.565872576177285E-3</v>
+      </c>
+      <c r="P19" s="17">
         <f>((T12*J12)+(T13*J13)+(T14*J14)+(T15*J15)+(T16*J16))-(1/5)*(T12+T13+T14+T15+T16)*(J12+J13+J14+J15+J16)</f>
-        <v>1.6961035050980414E-2</v>
-      </c>
-      <c r="R19" s="24">
+        <v>1.2125095845212305E-2</v>
+      </c>
+      <c r="R19" s="18">
         <f>((L3*0.1)^2+(M3*0.1)^2)^0.5</f>
         <v>0.34132096331752021</v>
       </c>
-      <c r="S19" s="24">
+      <c r="S19" s="18">
         <f>($P$22/N3)*100</f>
         <v>2.8000000000000003</v>
       </c>
-      <c r="T19" s="24">
+      <c r="T19" s="18">
         <f>(R19/O3)*100</f>
         <v>13.178415572105029</v>
       </c>
@@ -4097,17 +4087,17 @@
         <v>0.86399999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="6">
         <v>4</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="11">
         <v>0.8</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F20" s="11">
         <v>2.5</v>
       </c>
       <c r="I20" t="s">
@@ -4119,15 +4109,15 @@
       <c r="K20" t="s">
         <v>26</v>
       </c>
-      <c r="R20" s="24">
+      <c r="R20" s="18">
         <f t="shared" ref="R20:R23" si="9">((L4*0.1)^2+(M4*0.1)^2)^0.5</f>
         <v>0.29966648127543394</v>
       </c>
-      <c r="S20" s="24">
+      <c r="S20" s="18">
         <f t="shared" ref="S20:S23" si="10">($P$22/N4)*100</f>
         <v>2</v>
       </c>
-      <c r="T20" s="24">
+      <c r="T20" s="18">
         <f t="shared" ref="T20:T23" si="11">(R20/O4)*100</f>
         <v>10.702374331265499</v>
       </c>
@@ -4139,53 +4129,50 @@
         <f t="shared" si="1"/>
         <v>0.91800000000000004</v>
       </c>
-      <c r="Z20">
-        <f>J12+1</f>
+      <c r="Z20" s="10">
+        <f>((203-203)-(203-203))/(1100-150) +1</f>
         <v>1</v>
       </c>
-      <c r="AA20">
-        <v>2.8000000000000001E-2</v>
-      </c>
     </row>
-    <row r="21" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="6">
         <v>5</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="11">
         <v>0.7</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F21" s="11">
         <v>2.2999999999999998</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
-      <c r="I21" s="23">
+      <c r="I21" s="17">
         <f>T12-($L$19+$M$19*J12)</f>
-        <v>7.754942366605691E-2</v>
-      </c>
-      <c r="J21" s="23">
+        <v>4.1255917087309399E-2</v>
+      </c>
+      <c r="J21" s="17">
         <f>(J12^2+J13^2+J14^2+J15^2+J16^2)-(1/5)*(J12+J13+J14+J15+J16)^2</f>
-        <v>2.3228139381985527E-3</v>
-      </c>
-      <c r="K21" s="24">
-        <v>1.83</v>
+        <v>1.565872576177285E-3</v>
+      </c>
+      <c r="K21" s="18">
+        <v>1.34</v>
       </c>
       <c r="P21" t="s">
         <v>30</v>
       </c>
-      <c r="R21" s="24">
+      <c r="R21" s="18">
         <f t="shared" si="9"/>
         <v>0.37161808352124098</v>
       </c>
-      <c r="S21" s="24">
+      <c r="S21" s="18">
         <f t="shared" si="10"/>
         <v>1.2727272727272725</v>
       </c>
-      <c r="T21" s="24">
+      <c r="T21" s="18">
         <f t="shared" si="11"/>
         <v>7.9746369854343548</v>
       </c>
@@ -4197,50 +4184,48 @@
         <f t="shared" si="1"/>
         <v>0.97199999999999998</v>
       </c>
-      <c r="Z21" s="23">
-        <f>J13+6.8</f>
-        <v>6.8282051282051279</v>
-      </c>
-      <c r="AA21">
-        <v>7.0000000000000007E-2</v>
+      <c r="Z21" s="14">
+        <f>-((203-227)-(203-205))/(1100-150) +5.6</f>
+        <v>5.6231578947368419</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
-      <c r="B22" s="7">
+      <c r="B22" s="22">
         <v>255</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="22">
         <v>206</v>
       </c>
       <c r="D22" s="6">
         <v>1</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="11">
         <v>0.6</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="11">
         <v>2</v>
       </c>
       <c r="H22">
         <v>2</v>
       </c>
-      <c r="I22" s="23">
+      <c r="I22" s="17">
         <f>T13-($L$19+$M$19*J13)</f>
-        <v>-8.5876314778601734E-2</v>
-      </c>
+        <v>-5.2546102437959319E-2</v>
+      </c>
+      <c r="N22" s="17"/>
       <c r="P22">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="R22" s="24">
+      <c r="R22" s="18">
         <f t="shared" si="9"/>
         <v>0.52201532544552753</v>
       </c>
-      <c r="S22" s="24">
+      <c r="S22" s="18">
         <f t="shared" si="10"/>
         <v>0.93333333333333346</v>
       </c>
-      <c r="T22" s="24">
+      <c r="T22" s="18">
         <f t="shared" si="11"/>
         <v>4.5871293975881153</v>
       </c>
@@ -4252,43 +4237,40 @@
         <f t="shared" si="1"/>
         <v>1.026</v>
       </c>
-      <c r="Z22" s="23">
-        <f>J14+8.9</f>
-        <v>8.9397435897435908</v>
-      </c>
-      <c r="AA22">
-        <v>0.16500000000000001</v>
+      <c r="Z22" s="14">
+        <f>-((203-236)-(203-205))/(1100-150)+7.6</f>
+        <v>7.6326315789473682</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="6">
         <v>2</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="11">
         <v>0.6</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="11">
         <v>2</v>
       </c>
       <c r="H23">
         <v>3</v>
       </c>
-      <c r="I23" s="23">
-        <f t="shared" ref="I22:I25" si="12">T14-($L$19+$M$19*J14)</f>
-        <v>-7.4791552163649161E-2</v>
-      </c>
-      <c r="R23" s="24">
+      <c r="I23" s="17">
+        <f t="shared" ref="I23:I25" si="12">T14-($L$19+$M$19*J14)</f>
+        <v>-3.0395269626946275E-2</v>
+      </c>
+      <c r="R23" s="18">
         <f t="shared" si="9"/>
         <v>0.72732386183872721</v>
       </c>
-      <c r="S23" s="24">
+      <c r="S23" s="18">
         <f t="shared" si="10"/>
         <v>0.73684210526315796</v>
       </c>
-      <c r="T23" s="24">
+      <c r="T23" s="18">
         <f t="shared" si="11"/>
         <v>3.4372583262699776</v>
       </c>
@@ -4300,35 +4282,32 @@
         <f t="shared" si="1"/>
         <v>1.08</v>
       </c>
-      <c r="Z23" s="23">
-        <f>J15+11.1</f>
-        <v>11.151282051282051</v>
-      </c>
-      <c r="AA23">
-        <v>0.30299999999999999</v>
+      <c r="Z23" s="14">
+        <f>-((203-246)-(203-206))/(1100-150)+9.2</f>
+        <v>9.2421052631578942</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>5</v>
       </c>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="6">
         <v>3</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="11">
         <v>0.6</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="11">
         <v>2</v>
       </c>
       <c r="H24">
         <v>4</v>
       </c>
-      <c r="I24" s="23">
+      <c r="I24" s="17">
         <f t="shared" si="12"/>
-        <v>-2.1868003610376663E-2</v>
+        <v>-6.1867020186914812E-3</v>
       </c>
       <c r="W24">
         <f t="shared" si="3"/>
@@ -4338,33 +4317,30 @@
         <f t="shared" si="1"/>
         <v>1.1339999999999999</v>
       </c>
-      <c r="Z24" s="23">
-        <f>J16+13.15</f>
-        <v>13.212820512820514</v>
-      </c>
-      <c r="AA24">
-        <v>0.51100000000000001</v>
+      <c r="Z24" s="14">
+        <f>-((203-255)-(203-206))/(1100-150)+11.2</f>
+        <v>11.25157894736842</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
       <c r="D25" s="6">
         <v>4</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="11">
         <v>0.6</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="11">
         <v>2.1</v>
       </c>
       <c r="H25">
         <v>5</v>
       </c>
-      <c r="I25" s="23">
+      <c r="I25" s="17">
         <f t="shared" si="12"/>
-        <v>0.10198650946790366</v>
+        <v>4.7872156996287552E-2</v>
       </c>
       <c r="W25">
         <f t="shared" si="3"/>
@@ -4375,18 +4351,23 @@
         <v>1.1879999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
       <c r="D26" s="6">
         <v>5</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="11">
         <v>0.6</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="11">
         <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y30" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
